--- a/BI-backend/src/main/resources/网站数据.xlsx
+++ b/BI-backend/src/main/resources/网站数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\Git\ray-BI\BI-backend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0264B6BE-D6A3-489B-895C-9F98500D8947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7739D0D6-49E3-44F5-868A-B4F1C7F7F905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
   </bookViews>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -53,6 +44,22 @@
   </si>
   <si>
     <t>3号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -464,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260829AF-83D5-9D43-A57C-13A2BDCFFDE0}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.8"/>
@@ -511,6 +518,38 @@
         <v>30</v>
       </c>
     </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
